--- a/wwwroot/export.xlsx
+++ b/wwwroot/export.xlsx
@@ -79,6 +79,9 @@
     <x:t>u</x:t>
   </x:si>
   <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
     <x:t>12/28/2023 12:00:00 AM</x:t>
   </x:si>
   <x:si>
@@ -91,7 +94,7 @@
     <x:t>Upper Rack</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Awab</x:t>
@@ -106,7 +109,7 @@
     <x:t>lower</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
+    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Faizan</x:t>
@@ -556,7 +559,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>15</x:v>
@@ -568,30 +571,30 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>16</x:v>
@@ -602,25 +605,25 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>16</x:v>
